--- a/data/trans_orig/Q55-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2E55CF-9927-48D5-A57A-CCA169C9E764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2067E1-B0FF-4504-B93F-D1BF6B8F412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5D828F1-9461-47E4-858A-4CC6AC71A7A5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAC63EB8-D6C9-4BED-ABE4-0AF790261165}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="286">
   <si>
     <t>Población según el número de personas del hogar en 2012 (Tasa respuesta: 1,48%)</t>
   </si>
@@ -123,10 +123,10 @@
     <t>46,12%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>48,66%</t>
@@ -144,10 +144,10 @@
     <t>44,69%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>14,6%</t>
@@ -159,7 +159,7 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>36,87%</t>
+    <t>37,39%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -177,7 +177,7 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>7,81%</t>
@@ -189,13 +189,13 @@
     <t>6,34%</t>
   </si>
   <si>
-    <t>19,29%</t>
+    <t>21,48%</t>
   </si>
   <si>
     <t>65,07%</t>
   </si>
   <si>
-    <t>16,6%</t>
+    <t>15,73%</t>
   </si>
   <si>
     <t>38,94%</t>
@@ -210,568 +210,568 @@
     <t>43,86%</t>
   </si>
   <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>80,98%</t>
@@ -783,19 +783,19 @@
     <t>73,52%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -807,88 +807,94 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,34%</t>
+    <t>31,06%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436AC56A-5932-46F2-8805-245A52BCC2D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D662AFC7-FA66-4AD8-B8B2-EDCB6E1F3AA1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3269,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D366B361-DB7D-4691-8420-C843A67D2A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109C0F85-6806-4934-BBB2-095002F80149}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4171,7 +4177,7 @@
         <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4180,13 +4186,13 @@
         <v>12627</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4228,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4237,7 +4243,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4356,14 +4362,14 @@
         <v>1762</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4386,13 +4392,13 @@
         <v>1762</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4413,13 @@
         <v>865</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -4422,13 +4428,13 @@
         <v>4987</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -4437,13 +4443,13 @@
         <v>5852</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4464,13 @@
         <v>2622</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4473,13 +4479,13 @@
         <v>8931</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4488,13 +4494,13 @@
         <v>11553</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4530,13 @@
         <v>2239</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4539,13 +4545,13 @@
         <v>2239</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4721,13 @@
         <v>736</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -4730,13 +4736,13 @@
         <v>4978</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -4745,7 +4751,7 @@
         <v>5714</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>243</v>
@@ -5056,10 +5062,10 @@
         <v>268</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5080,13 @@
         <v>9036</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -5089,13 +5095,13 @@
         <v>38709</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -5104,13 +5110,13 @@
         <v>47745</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5146,13 @@
         <v>4564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -5155,13 +5161,13 @@
         <v>4564</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q55-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2067E1-B0FF-4504-B93F-D1BF6B8F412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B923F5-4CC3-4616-ACF4-3B586ECED8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAC63EB8-D6C9-4BED-ABE4-0AF790261165}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12F0D31E-71D4-43F3-9DD5-08DDFE451315}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="285">
   <si>
     <t>Población según el número de personas del hogar en 2012 (Tasa respuesta: 1,48%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
@@ -96,7 +96,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -114,19 +114,19 @@
     <t>43,05%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>48,66%</t>
@@ -135,34 +135,34 @@
     <t>42,35%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>58,29%</t>
+    <t>58,1%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -171,259 +171,256 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>20,28%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>25,41%</t>
+    <t>22,73%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>21,48%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>65,07%</t>
   </si>
   <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
     <t>56,85%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>63,22%</t>
   </si>
   <si>
     <t>43,15%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>46,61%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>26,36%</t>
+    <t>27,91%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>18,82%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -432,109 +429,109 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>41,69%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>46,45%</t>
   </si>
   <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
+    <t>Población según el número de personas del hogar en 2016 (Tasa respuesta: 1,16%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -552,13 +549,13 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>37,73%</t>
+    <t>37,29%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>35,98%</t>
+    <t>29,93%</t>
   </si>
   <si>
     <t>52,11%</t>
@@ -567,19 +564,19 @@
     <t>51,55%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
   <si>
     <t>47,89%</t>
@@ -588,19 +585,19 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>41,71%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -612,64 +609,67 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>24,98%</t>
+    <t>32,12%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>23,05%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>30,6%</t>
+    <t>29,54%</t>
   </si>
   <si>
     <t>38,43%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>45,95%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>69,4%</t>
+    <t>70,46%</t>
   </si>
   <si>
     <t>49,44%</t>
   </si>
   <si>
-    <t>26,71%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -678,76 +678,76 @@
     <t>33,57%</t>
   </si>
   <si>
-    <t>70,98%</t>
+    <t>83,65%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>28,01%</t>
+    <t>28,35%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>68,48%</t>
+    <t>68,36%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>27,34%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>49,95%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>55,28%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>53,97%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>48,33%</t>
+    <t>55,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>41,83%</t>
+    <t>37,76%</t>
   </si>
   <si>
     <t>19,02%</t>
@@ -759,19 +759,19 @@
     <t>26,48%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
   <si>
     <t>80,98%</t>
@@ -783,19 +783,19 @@
     <t>73,52%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -807,31 +807,31 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,06%</t>
+    <t>32,11%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>35,3%</t>
@@ -840,43 +840,40 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>48,02%</t>
+    <t>47,6%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>69,31%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>6,47%</t>
@@ -885,16 +882,16 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>19,93%</t>
+    <t>18,43%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D662AFC7-FA66-4AD8-B8B2-EDCB6E1F3AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94414D8E-534D-4D9C-B1ED-809F98038E3A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2785,10 +2782,10 @@
         <v>113</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2800,13 @@
         <v>4040</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2818,13 +2815,13 @@
         <v>10373</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -2833,13 +2830,13 @@
         <v>14413</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2866,13 @@
         <v>1894</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2884,13 +2881,13 @@
         <v>1894</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2973,13 +2970,13 @@
         <v>1158</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2988,13 +2985,13 @@
         <v>1158</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -3024,13 +3021,13 @@
         <v>5324</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3039,13 +3036,13 @@
         <v>5324</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3057,13 @@
         <v>16231</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -3075,13 +3072,13 @@
         <v>33264</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -3090,13 +3087,13 @@
         <v>49495</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3108,13 @@
         <v>10552</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -3126,13 +3123,13 @@
         <v>34151</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M37" s="7">
         <v>41</v>
@@ -3141,13 +3138,13 @@
         <v>44704</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -3177,13 +3174,13 @@
         <v>5886</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -3192,13 +3189,13 @@
         <v>5886</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3251,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109C0F85-6806-4934-BBB2-095002F80149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B4575E-2C57-48B2-A8D3-7A3BF15BD560}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3292,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3418,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3433,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3482,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3531,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3580,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3626,7 +3623,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3716,22 +3713,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3758,13 @@
         <v>1049</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3776,13 +3773,13 @@
         <v>1049</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,7 +3794,7 @@
         <v>1741</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
@@ -3812,13 +3809,13 @@
         <v>6444</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3827,13 +3824,13 @@
         <v>8186</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3845,7 @@
         <v>1601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -3863,13 +3860,13 @@
         <v>5008</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3878,13 +3875,13 @@
         <v>6609</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,22 +3917,22 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,22 +4021,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4066,13 @@
         <v>1342</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4084,13 +4081,13 @@
         <v>1342</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,10 +4102,10 @@
         <v>4506</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>15</v>
@@ -4120,13 +4117,13 @@
         <v>8509</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -4135,13 +4132,13 @@
         <v>13016</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4153,13 @@
         <v>1681</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4171,13 +4168,13 @@
         <v>10946</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4222,7 +4219,7 @@
         <v>1342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -4237,7 +4234,7 @@
         <v>1342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -4347,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4655,7 +4652,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4706,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4859,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,10 +5080,10 @@
         <v>271</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -5095,13 +5092,13 @@
         <v>38709</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -5110,13 +5107,13 @@
         <v>47745</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5143,13 @@
         <v>4564</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -5161,13 +5158,13 @@
         <v>4564</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,7 +5220,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
